--- a/plot.xlsx
+++ b/plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lina4692\Documents\Genomes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3D1B45-92C7-46B1-97DE-2732CDE8A14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B05329-E54F-42BE-A5B8-FE027A22E8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>pop1</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>pop12</t>
-  </si>
-  <si>
-    <t>pop13</t>
   </si>
 </sst>
 </file>
@@ -102,10 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,625 +382,541 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>0.85559468999999999</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0.93062602400000005</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>0.77176553199999998</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>0.65851947</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>0.65777914800000004</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>0.67413043399999995</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>0.81811561499999996</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>0.83075856199999998</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>0.65725607500000005</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>0.81076964100000004</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>0.84711765299999997</v>
       </c>
-      <c r="N2" s="2">
-        <v>0.97454083800000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.85559468999999999</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.85952284099999998</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0.70718706099999995</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.59285113700000003</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>0.59295920000000002</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>0.60802664500000003</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>0.72680014199999998</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>0.76096881400000005</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>0.592668588</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>0.73018383399999998</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>0.77158621199999999</v>
       </c>
-      <c r="N3" s="2">
-        <v>0.89520997499999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.93062602400000005</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.85952284099999998</v>
       </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
         <v>0.77112831199999998</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0.65856560099999994</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>0.65547211400000005</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>0.671307934</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>0.82064312500000003</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>0.82861097900000003</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>0.65047488899999995</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>0.82376132999999996</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>0.84420353999999997</v>
       </c>
-      <c r="N4" s="2">
-        <v>0.97428135199999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.77176553199999998</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.70718706099999995</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.77112831199999998</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.40911352200000001</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>0.40953251899999998</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>0.43731246600000001</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>0.62332219700000002</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>0.57573553399999999</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>0.43391180000000001</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>0.69123283800000002</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>0.65274499100000005</v>
       </c>
-      <c r="N5" s="2">
-        <v>0.76362496599999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.65851947</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.59285113700000003</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.65856560099999994</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.40911352200000001</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
         <v>0.20366986000000001</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0.23052130700000001</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>0.462308679</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>0.48542216999999999</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>0.28624153899999999</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>0.576219551</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>0.52976082899999999</v>
       </c>
-      <c r="N6" s="2">
-        <v>0.64893380300000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0.65777914800000004</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0.59295920000000002</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.65547211400000005</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.40953251899999998</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0.20366986000000001</v>
       </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
         <v>0.202752247</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>0.45067096299999998</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>0.47091074799999999</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>0.27447165600000001</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>0.57523724200000004</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>0.52340780499999995</v>
       </c>
-      <c r="N7" s="2">
-        <v>0.64419517599999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>0.67413043399999995</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>0.60802664500000003</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0.671307934</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0.43731246600000001</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0.23052130700000001</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>0.202752247</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
         <v>0.47039505799999998</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>0.49658799599999998</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>0.28274870499999999</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>0.58847372799999997</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>0.53255638999999999</v>
       </c>
-      <c r="N8" s="2">
-        <v>0.65924242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>0.81811561499999996</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.72680014199999998</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.82064312500000003</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0.62332219700000002</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0.462308679</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>0.45067096299999998</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>0.47039505799999998</v>
       </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
         <v>0.68881661999999999</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>0.49493375099999998</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <v>0.70861943999999999</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <v>0.71209328900000002</v>
       </c>
-      <c r="N9" s="2">
-        <v>0.83738816000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>0.83075856199999998</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>0.76096881400000005</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.82861097900000003</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>0.57573553399999999</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0.48542216999999999</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>0.47091074799999999</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>0.49658799599999998</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>0.68881661999999999</v>
       </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
         <v>0.474187268</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>0.74191412700000003</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>0.70329443400000002</v>
       </c>
-      <c r="N10" s="2">
-        <v>0.82088012600000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>0.65725607500000005</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>0.592668588</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0.65047488899999995</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>0.43391180000000001</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0.28624153899999999</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>0.27447165600000001</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>0.28274870499999999</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>0.49493375099999998</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>0.474187268</v>
       </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
         <v>0.57230525099999996</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <v>0.49235823400000001</v>
       </c>
-      <c r="N11" s="2">
-        <v>0.62216865899999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>0.81076964100000004</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>0.73018383399999998</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>0.82376132999999996</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>0.69123283800000002</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>0.576219551</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>0.57523724200000004</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>0.58847372799999997</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>0.70861943999999999</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>0.74191412700000003</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <v>0.57230525099999996</v>
       </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.74918272699999999</v>
       </c>
-      <c r="N12" s="2">
-        <v>0.87588729899999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>0.84711765299999997</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>0.77158621199999999</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>0.84420353999999997</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>0.65274499100000005</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>0.52976082899999999</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>0.52340780499999995</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>0.53255638999999999</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>0.71209328900000002</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>0.70329443400000002</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>0.49235823400000001</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>0.74918272699999999</v>
       </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0.84759106699999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.97454083800000002</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.89520997499999999</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.97428135199999999</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.76362496599999996</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.64893380300000003</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.64419517599999998</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.65924242</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.83738816000000005</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0.82088012600000004</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0.62216865899999996</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.87588729899999995</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0.84759106699999998</v>
-      </c>
-      <c r="N14" s="2">
+      <c r="M13" s="1">
         <v>0</v>
       </c>
     </row>
